--- a/src/testData/testOpen.xlsx
+++ b/src/testData/testOpen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t xml:space="preserve">Acquisition #</t>
   </si>
@@ -139,24 +139,12 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">A1992.0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morin</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Parks Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">111 Water St., E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed Jan 08 00:00:00 EST 1992</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cornwall</t>
   </si>
   <si>
@@ -173,18 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zoology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McKiel, George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donation</t>
   </si>
 </sst>
 </file>
@@ -287,7 +263,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,62 +391,62 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>4</v>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
